--- a/biology/Zoologie/Conus_brianoi/Conus_brianoi.xlsx
+++ b/biology/Zoologie/Conus_brianoi/Conus_brianoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus brianoi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus brianoi a été décrite pour la première fois en 2019 par les malacologistes Tiziano Cossignani (d) et Alain Allary dans « Malacologia Mostra Mondiale »[1],[2].
-Synonymes
-Tenorioconus brianoi T. Cossignani &amp; Allary, 2019 · non accepté (combinaison originale)</t>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus brianoi a été décrite pour la première fois en 2019 par les malacologistes Tiziano Cossignani (d) et Alain Allary dans « Malacologia Mostra Mondiale »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_brianoi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_brianoi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tenorioconus brianoi T. Cossignani &amp; Allary, 2019 · non accepté (combinaison originale)</t>
         </is>
       </c>
     </row>
